--- a/output/5Y_P22_KFSDIV.xlsx
+++ b/output/5Y_P22_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.9322</v>
@@ -1293,7 +1296,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-27</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5846</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-26</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2867</v>
@@ -1393,7 +1396,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-25</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.0645</v>
@@ -1443,7 +1446,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-24</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8083</v>
@@ -1493,7 +1496,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-23</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5636</v>
@@ -1543,7 +1546,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.1788</v>
@@ -1593,7 +1596,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.5668</v>
@@ -1643,7 +1646,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-20</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.962</v>
@@ -1693,7 +1696,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2659</v>
@@ -1743,7 +1746,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.4103</v>
@@ -1793,7 +1796,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-17</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.3976</v>
@@ -1843,7 +1846,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9013</v>
@@ -1893,7 +1896,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.3527</v>
@@ -1943,7 +1946,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8804</v>
@@ -1993,7 +1996,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6268</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-12</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3636</v>
@@ -2093,7 +2096,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-11</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8711</v>
@@ -2143,7 +2146,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1252</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1934</v>
@@ -2243,7 +2246,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1176</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3311</v>
@@ -2343,7 +2346,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3637</v>
@@ -2393,7 +2396,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6447</v>
@@ -2443,7 +2446,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.486</v>
@@ -2493,7 +2496,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.1958</v>
@@ -2543,7 +2546,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4264</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>17.107</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.8894</v>
@@ -2693,7 +2696,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4004</v>
@@ -2743,7 +2746,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3877</v>
@@ -2793,7 +2796,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6367</v>
@@ -2843,7 +2846,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.0061</v>
@@ -2893,7 +2896,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.835</v>
@@ -2943,7 +2946,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.4216</v>
@@ -2993,7 +2996,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2404</v>
@@ -3043,7 +3046,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.382</v>
@@ -3093,7 +3096,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>11.9583</v>
@@ -3143,7 +3146,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.2036</v>
@@ -3193,7 +3196,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.9136</v>
@@ -3243,7 +3246,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.4338</v>
@@ -3293,7 +3296,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.9657</v>
@@ -3343,7 +3346,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3568</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.2487</v>
@@ -3443,7 +3446,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3991</v>
@@ -3493,7 +3496,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.5985</v>
@@ -3543,7 +3546,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.6955</v>
@@ -3593,7 +3596,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3398</v>
@@ -3643,7 +3646,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.8469</v>
@@ -3693,7 +3696,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.129</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.716</v>
@@ -3793,7 +3796,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.4613</v>
@@ -3843,7 +3846,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.6545</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.2345</v>
@@ -3943,7 +3946,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.1636</v>
@@ -3993,7 +3996,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.8145</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.2352</v>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.8241</v>
@@ -4143,7 +4146,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.2543</v>
@@ -4193,7 +4196,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.5675</v>
@@ -4243,7 +4246,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.967000000000001</v>
@@ -4378,7 +4381,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.9322</v>
@@ -4425,7 +4428,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-27</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5846</v>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-26</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2867</v>
@@ -4531,7 +4534,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-25</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.0645</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-24</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8083</v>
@@ -4637,7 +4640,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-23</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5636</v>
@@ -4690,7 +4693,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.1788</v>
@@ -4743,7 +4746,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.5668</v>
@@ -4796,7 +4799,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-20</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.962</v>
@@ -4849,7 +4852,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2659</v>
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.4103</v>
@@ -4955,7 +4958,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-17</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.3976</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9013</v>
@@ -5061,7 +5064,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.3527</v>
@@ -5114,7 +5117,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8804</v>
@@ -5167,7 +5170,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6268</v>
@@ -5220,7 +5223,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-12</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3636</v>
@@ -5273,7 +5276,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-11</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8711</v>
@@ -5326,7 +5329,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1252</v>
@@ -5379,7 +5382,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1934</v>
@@ -5432,7 +5435,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1176</v>
@@ -5485,7 +5488,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3311</v>
@@ -5538,7 +5541,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3637</v>
@@ -5568,10 +5571,10 @@
         <v>274420.2315</v>
       </c>
       <c r="K24" s="1">
-        <v>190823.4953</v>
+        <v>190855.7986</v>
       </c>
       <c r="L24" s="1">
-        <v>13.2713</v>
+        <v>13.2735</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -5591,7 +5594,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6447</v>
@@ -5621,10 +5624,10 @@
         <v>273617.7681</v>
       </c>
       <c r="K25" s="1">
-        <v>200392.9788</v>
+        <v>200425.2822</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3592</v>
+        <v>13.3614</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -5644,7 +5647,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.486</v>
@@ -5674,10 +5677,10 @@
         <v>310821.9093</v>
       </c>
       <c r="K26" s="1">
-        <v>221240.4664</v>
+        <v>221272.7697</v>
       </c>
       <c r="L26" s="1">
-        <v>13.473</v>
+        <v>13.475</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -5697,7 +5700,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.1958</v>
@@ -5727,10 +5730,10 @@
         <v>332280.984</v>
       </c>
       <c r="K27" s="1">
-        <v>217438.1726</v>
+        <v>217485.6685</v>
       </c>
       <c r="L27" s="1">
-        <v>13.442</v>
+        <v>13.445</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -5750,7 +5753,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4264</v>
@@ -5780,10 +5783,10 @@
         <v>345983.9178</v>
       </c>
       <c r="K28" s="1">
-        <v>215973.2484</v>
+        <v>216026.5937</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4264</v>
+        <v>13.4297</v>
       </c>
       <c r="M28" s="1">
         <v>0.75</v>
@@ -5803,7 +5806,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>17.107</v>
@@ -5833,10 +5836,10 @@
         <v>378002.862</v>
       </c>
       <c r="K29" s="1">
-        <v>222295.5511</v>
+        <v>222348.8964</v>
       </c>
       <c r="L29" s="1">
-        <v>13.4971</v>
+        <v>13.5004</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -5856,7 +5859,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.8894</v>
@@ -5886,10 +5889,10 @@
         <v>384440.7046</v>
       </c>
       <c r="K30" s="1">
-        <v>221104.4747</v>
+        <v>221162.5798</v>
       </c>
       <c r="L30" s="1">
-        <v>13.4817</v>
+        <v>13.4852</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -5909,7 +5912,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4004</v>
@@ -5939,10 +5942,10 @@
         <v>400750.6109</v>
       </c>
       <c r="K31" s="1">
-        <v>234721.0236</v>
+        <v>234779.1287</v>
       </c>
       <c r="L31" s="1">
-        <v>13.6426</v>
+        <v>13.646</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -5962,7 +5965,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3877</v>
@@ -5992,10 +5995,10 @@
         <v>392151.7559</v>
       </c>
       <c r="K32" s="1">
-        <v>253190.8884</v>
+        <v>253248.9935</v>
       </c>
       <c r="L32" s="1">
-        <v>13.8138</v>
+        <v>13.8169</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6367</v>
@@ -6045,10 +6048,10 @@
         <v>386907.6545</v>
       </c>
       <c r="K33" s="1">
-        <v>281830.3215</v>
+        <v>281888.4267</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9614</v>
+        <v>13.9643</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.0061</v>
@@ -6098,10 +6101,10 @@
         <v>361158.0619</v>
       </c>
       <c r="K34" s="1">
-        <v>307060.8145</v>
+        <v>307118.9196</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0168</v>
+        <v>14.0194</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.835</v>
@@ -6151,10 +6154,10 @@
         <v>401863.1988</v>
       </c>
       <c r="K35" s="1">
-        <v>352892.822</v>
+        <v>352950.9271</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8806</v>
+        <v>13.8828</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -6174,7 +6177,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.4216</v>
@@ -6204,10 +6207,10 @@
         <v>426280.9343</v>
       </c>
       <c r="K36" s="1">
-        <v>341818.2177</v>
+        <v>341920.5807</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8811</v>
+        <v>13.8853</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6227,7 +6230,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2404</v>
@@ -6257,10 +6260,10 @@
         <v>407612.7808</v>
       </c>
       <c r="K37" s="1">
-        <v>337382.7717</v>
+        <v>337502.8451</v>
       </c>
       <c r="L37" s="1">
-        <v>13.874</v>
+        <v>13.8789</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -6280,7 +6283,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.382</v>
@@ -6310,10 +6313,10 @@
         <v>402872.0951</v>
       </c>
       <c r="K38" s="1">
-        <v>376206.0204</v>
+        <v>376326.0938</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8087</v>
+        <v>13.8132</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>11.9583</v>
@@ -6363,10 +6366,10 @@
         <v>400078.7711</v>
       </c>
       <c r="K39" s="1">
-        <v>409679.8099</v>
+        <v>409799.8834</v>
       </c>
       <c r="L39" s="1">
-        <v>13.6824</v>
+        <v>13.6864</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -6386,7 +6389,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.2036</v>
@@ -6416,10 +6419,10 @@
         <v>417782.4353</v>
       </c>
       <c r="K40" s="1">
-        <v>432430.2584</v>
+        <v>432550.3319</v>
       </c>
       <c r="L40" s="1">
-        <v>13.581</v>
+        <v>13.5848</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -6439,7 +6442,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.9136</v>
@@ -6469,10 +6472,10 @@
         <v>461926.8961</v>
       </c>
       <c r="K41" s="1">
-        <v>434644.5026</v>
+        <v>434764.5761</v>
       </c>
       <c r="L41" s="1">
-        <v>13.5734</v>
+        <v>13.5771</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.4338</v>
@@ -6522,10 +6525,10 @@
         <v>488038.2572</v>
       </c>
       <c r="K42" s="1">
-        <v>421902.9406</v>
+        <v>422073.9232</v>
       </c>
       <c r="L42" s="1">
-        <v>13.5935</v>
+        <v>13.599</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.9657</v>
@@ -6575,10 +6578,10 @@
         <v>483753.747</v>
       </c>
       <c r="K43" s="1">
-        <v>415767.0554</v>
+        <v>415962.562</v>
       </c>
       <c r="L43" s="1">
-        <v>13.5955</v>
+        <v>13.6019</v>
       </c>
       <c r="M43" s="1">
         <v>0.3</v>
@@ -6598,7 +6601,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3568</v>
@@ -6628,10 +6631,10 @@
         <v>514581.6436</v>
       </c>
       <c r="K44" s="1">
-        <v>440148.9679</v>
+        <v>440344.4745</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5606</v>
+        <v>13.5666</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -6651,7 +6654,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.2487</v>
@@ -6681,10 +6684,10 @@
         <v>521101.0245</v>
       </c>
       <c r="K45" s="1">
-        <v>437469.902</v>
+        <v>437676.118</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5617</v>
+        <v>13.5681</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -6704,7 +6707,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3991</v>
@@ -6734,10 +6737,10 @@
         <v>536041.9214</v>
       </c>
       <c r="K46" s="1">
-        <v>451004.5569</v>
+        <v>451210.7729</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5529</v>
+        <v>13.5591</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -6757,7 +6760,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.5985</v>
@@ -6787,10 +6790,10 @@
         <v>564698.3907</v>
       </c>
       <c r="K47" s="1">
-        <v>456029.6859</v>
+        <v>456235.9019</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5515</v>
+        <v>13.5576</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -6810,7 +6813,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.6955</v>
@@ -6840,10 +6843,10 @@
         <v>577966.1911000001</v>
       </c>
       <c r="K48" s="1">
-        <v>459346.2481</v>
+        <v>459552.4641</v>
       </c>
       <c r="L48" s="1">
-        <v>13.552</v>
+        <v>13.5581</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -6863,7 +6866,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3398</v>
@@ -6893,10 +6896,10 @@
         <v>575731.9962000001</v>
       </c>
       <c r="K49" s="1">
-        <v>466092.1451</v>
+        <v>466298.3611</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5545</v>
+        <v>13.5605</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -6916,7 +6919,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.8469</v>
@@ -6946,10 +6949,10 @@
         <v>577191.9998</v>
       </c>
       <c r="K50" s="1">
-        <v>488388.4766</v>
+        <v>488594.6926</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5458</v>
+        <v>13.5515</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -6969,7 +6972,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.129</v>
@@ -6999,10 +7002,10 @@
         <v>597839.1627</v>
       </c>
       <c r="K51" s="1">
-        <v>516234.9804</v>
+        <v>516441.1964</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5077</v>
+        <v>13.5131</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -7022,7 +7025,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.716</v>
@@ -7052,10 +7055,10 @@
         <v>592113.3962</v>
       </c>
       <c r="K52" s="1">
-        <v>515473.5827</v>
+        <v>515682.8431</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5082</v>
+        <v>13.5137</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -7075,7 +7078,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.4613</v>
@@ -7105,10 +7108,10 @@
         <v>602097.8415</v>
       </c>
       <c r="K53" s="1">
-        <v>541302.5312</v>
+        <v>541511.7915000001</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4695</v>
+        <v>13.4747</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.6545</v>
@@ -7158,10 +7161,10 @@
         <v>620078.2251</v>
       </c>
       <c r="K54" s="1">
-        <v>561599.2371</v>
+        <v>561808.4975000001</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4313</v>
+        <v>13.4363</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -7181,7 +7184,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.2345</v>
@@ -7211,10 +7214,10 @@
         <v>612478.1964</v>
       </c>
       <c r="K55" s="1">
-        <v>563545.5224</v>
+        <v>563754.7827</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4285</v>
+        <v>13.4335</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -7234,7 +7237,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.1636</v>
@@ -7264,10 +7267,10 @@
         <v>630571.5685000001</v>
       </c>
       <c r="K56" s="1">
-        <v>591248.4995</v>
+        <v>591457.7598</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3688</v>
+        <v>13.3735</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -7287,7 +7290,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.8145</v>
@@ -7317,10 +7320,10 @@
         <v>624733.8123</v>
       </c>
       <c r="K57" s="1">
-        <v>604427.9423</v>
+        <v>604637.2027</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3406</v>
+        <v>13.3452</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -7340,7 +7343,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.2352</v>
@@ -7370,10 +7373,10 @@
         <v>607169.1959</v>
       </c>
       <c r="K58" s="1">
-        <v>630316.4757</v>
+        <v>630525.7361</v>
       </c>
       <c r="L58" s="1">
-        <v>13.2714</v>
+        <v>13.2758</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -7393,7 +7396,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.8241</v>
@@ -7423,10 +7426,10 @@
         <v>608984.6132</v>
       </c>
       <c r="K59" s="1">
-        <v>667927.9966</v>
+        <v>668137.2569</v>
       </c>
       <c r="L59" s="1">
-        <v>13.1391</v>
+        <v>13.1432</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.2543</v>
@@ -7476,10 +7479,10 @@
         <v>641915.8855</v>
       </c>
       <c r="K60" s="1">
-        <v>698909.6594</v>
+        <v>699118.9197</v>
       </c>
       <c r="L60" s="1">
-        <v>13.0171</v>
+        <v>13.021</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -7499,7 +7502,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.5675</v>
@@ -7529,10 +7532,10 @@
         <v>615912.2173</v>
       </c>
       <c r="K61" s="1">
-        <v>685801.9905</v>
+        <v>686063.6727</v>
       </c>
       <c r="L61" s="1">
-        <v>13.0556</v>
+        <v>13.0606</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -7552,7 +7555,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.967000000000001</v>
@@ -7582,10 +7585,10 @@
         <v>605815.6019</v>
       </c>
       <c r="K62" s="1">
-        <v>731990.1724</v>
+        <v>732251.8546</v>
       </c>
       <c r="L62" s="1">
-        <v>12.8664</v>
+        <v>12.871</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -7690,7 +7693,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.9322</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-27</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5846</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-26</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2867</v>
@@ -7843,7 +7846,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-25</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.0645</v>
@@ -7896,7 +7899,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-24</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8083</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-23</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5636</v>
@@ -8002,7 +8005,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.1788</v>
@@ -8055,7 +8058,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.5668</v>
@@ -8108,7 +8111,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-20</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.962</v>
@@ -8161,7 +8164,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2659</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.4103</v>
@@ -8267,7 +8270,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-17</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.3976</v>
@@ -8320,7 +8323,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9013</v>
@@ -8373,7 +8376,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.3527</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8804</v>
@@ -8479,7 +8482,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6268</v>
@@ -8532,7 +8535,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-12</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3636</v>
@@ -8585,7 +8588,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-11</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8711</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1252</v>
@@ -8691,7 +8694,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1934</v>
@@ -8744,7 +8747,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1176</v>
@@ -8797,7 +8800,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3311</v>
@@ -8850,7 +8853,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3637</v>
@@ -8880,10 +8883,10 @@
         <v>276252.0472</v>
       </c>
       <c r="K24" s="1">
-        <v>201690.3005</v>
+        <v>201721.9117</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3047</v>
+        <v>13.3068</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8903,7 +8906,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6447</v>
@@ -8933,10 +8936,10 @@
         <v>274831.7522</v>
       </c>
       <c r="K25" s="1">
-        <v>212398.6058</v>
+        <v>212430.217</v>
       </c>
       <c r="L25" s="1">
-        <v>13.3964</v>
+        <v>13.3983</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -8956,7 +8959,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.486</v>
@@ -8986,10 +8989,10 @@
         <v>313620.3319</v>
       </c>
       <c r="K26" s="1">
-        <v>235082.2281</v>
+        <v>235113.8392</v>
       </c>
       <c r="L26" s="1">
-        <v>13.5099</v>
+        <v>13.5117</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -9009,7 +9012,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.1958</v>
@@ -9039,10 +9042,10 @@
         <v>335794.0473</v>
       </c>
       <c r="K27" s="1">
-        <v>231730.7286</v>
+        <v>231775.7311</v>
       </c>
       <c r="L27" s="1">
-        <v>13.4846</v>
+        <v>13.4872</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4264</v>
@@ -9092,10 +9095,10 @@
         <v>349737.9439</v>
       </c>
       <c r="K28" s="1">
-        <v>230881.5783</v>
+        <v>230929.9715</v>
       </c>
       <c r="L28" s="1">
-        <v>13.4763</v>
+        <v>13.4791</v>
       </c>
       <c r="M28" s="1">
         <v>0.75</v>
@@ -9115,7 +9118,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>17.107</v>
@@ -9145,10 +9148,10 @@
         <v>383217.2008</v>
       </c>
       <c r="K29" s="1">
-        <v>238352.097</v>
+        <v>238400.4902</v>
       </c>
       <c r="L29" s="1">
-        <v>13.5532</v>
+        <v>13.556</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.8894</v>
@@ -9198,10 +9201,10 @@
         <v>389403.845</v>
       </c>
       <c r="K30" s="1">
-        <v>237846.9432</v>
+        <v>237897.3551</v>
       </c>
       <c r="L30" s="1">
-        <v>13.5472</v>
+        <v>13.5501</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -9221,7 +9224,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4004</v>
@@ -9251,10 +9254,10 @@
         <v>406132.5604</v>
       </c>
       <c r="K31" s="1">
-        <v>253220.4348</v>
+        <v>253270.8467</v>
       </c>
       <c r="L31" s="1">
-        <v>13.7133</v>
+        <v>13.716</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -9274,7 +9277,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3877</v>
@@ -9304,10 +9307,10 @@
         <v>396117.0787</v>
       </c>
       <c r="K32" s="1">
-        <v>273870.2854</v>
+        <v>273920.6973</v>
       </c>
       <c r="L32" s="1">
-        <v>13.8866</v>
+        <v>13.8892</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -9327,7 +9330,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6367</v>
@@ -9357,10 +9360,10 @@
         <v>389669.312</v>
       </c>
       <c r="K33" s="1">
-        <v>305543.7522</v>
+        <v>305594.164</v>
       </c>
       <c r="L33" s="1">
-        <v>14.0311</v>
+        <v>14.0334</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.0061</v>
@@ -9410,10 +9413,10 @@
         <v>361002.161</v>
       </c>
       <c r="K34" s="1">
-        <v>333649.3476</v>
+        <v>333699.7595</v>
       </c>
       <c r="L34" s="1">
-        <v>14.0825</v>
+        <v>14.0846</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -9433,7 +9436,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.835</v>
@@ -9463,10 +9466,10 @@
         <v>404265.0179</v>
       </c>
       <c r="K35" s="1">
-        <v>384136.4669</v>
+        <v>384186.8788</v>
       </c>
       <c r="L35" s="1">
-        <v>13.9349</v>
+        <v>13.9367</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.4216</v>
@@ -9516,10 +9519,10 @@
         <v>429938.1884</v>
       </c>
       <c r="K36" s="1">
-        <v>373078.302</v>
+        <v>373172.9061</v>
       </c>
       <c r="L36" s="1">
-        <v>13.937</v>
+        <v>13.9406</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -9539,7 +9542,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2404</v>
@@ -9569,10 +9572,10 @@
         <v>408693.6869</v>
       </c>
       <c r="K37" s="1">
-        <v>369237.8254</v>
+        <v>369347.7643</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9319</v>
+        <v>13.936</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -9592,7 +9595,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.382</v>
@@ -9622,10 +9625,10 @@
         <v>402558.8505</v>
       </c>
       <c r="K38" s="1">
-        <v>412562.6746</v>
+        <v>412672.6134</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8589</v>
+        <v>13.8626</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -9645,7 +9648,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>11.9583</v>
@@ -9675,10 +9678,10 @@
         <v>398540.2125</v>
       </c>
       <c r="K39" s="1">
-        <v>450182.7505</v>
+        <v>450292.6893</v>
       </c>
       <c r="L39" s="1">
-        <v>13.7247</v>
+        <v>13.728</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -9698,7 +9701,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.2036</v>
@@ -9728,10 +9731,10 @@
         <v>416850.5623</v>
       </c>
       <c r="K40" s="1">
-        <v>467263.3482</v>
+        <v>467373.287</v>
       </c>
       <c r="L40" s="1">
-        <v>13.6521</v>
+        <v>13.6553</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -9751,7 +9754,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.9136</v>
@@ -9781,10 +9784,10 @@
         <v>463964.4228</v>
       </c>
       <c r="K41" s="1">
-        <v>477263.3482</v>
+        <v>477373.287</v>
       </c>
       <c r="L41" s="1">
-        <v>13.6189</v>
+        <v>13.622</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.4338</v>
@@ -9834,10 +9837,10 @@
         <v>491750.9012</v>
       </c>
       <c r="K42" s="1">
-        <v>467168.5801</v>
+        <v>467318.8528</v>
       </c>
       <c r="L42" s="1">
-        <v>13.6344</v>
+        <v>13.6387</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -9857,7 +9860,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.9657</v>
@@ -9887,10 +9890,10 @@
         <v>485940.5121</v>
       </c>
       <c r="K43" s="1">
-        <v>461567.6582</v>
+        <v>461740.3167</v>
       </c>
       <c r="L43" s="1">
-        <v>13.6365</v>
+        <v>13.6416</v>
       </c>
       <c r="M43" s="1">
         <v>0.3</v>
@@ -9910,7 +9913,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3568</v>
@@ -9940,10 +9943,10 @@
         <v>519024.6581</v>
       </c>
       <c r="K44" s="1">
-        <v>489759.6524</v>
+        <v>489932.3109</v>
       </c>
       <c r="L44" s="1">
-        <v>13.5976</v>
+        <v>13.6024</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -9963,7 +9966,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.2487</v>
@@ -9993,10 +9996,10 @@
         <v>525152.3017</v>
       </c>
       <c r="K45" s="1">
-        <v>488025.2304</v>
+        <v>488204.8221</v>
       </c>
       <c r="L45" s="1">
-        <v>13.5984</v>
+        <v>13.6034</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -10016,7 +10019,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3991</v>
@@ -10046,10 +10049,10 @@
         <v>540658.5884</v>
       </c>
       <c r="K46" s="1">
-        <v>504354.7596</v>
+        <v>504534.3513</v>
       </c>
       <c r="L46" s="1">
-        <v>13.5877</v>
+        <v>13.5925</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -10069,7 +10072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.5985</v>
@@ -10099,10 +10102,10 @@
         <v>571482.6421000001</v>
       </c>
       <c r="K47" s="1">
-        <v>511264.8041</v>
+        <v>511444.3958</v>
       </c>
       <c r="L47" s="1">
-        <v>13.5855</v>
+        <v>13.5903</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -10122,7 +10125,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.6955</v>
@@ -10152,10 +10155,10 @@
         <v>585141.2363</v>
       </c>
       <c r="K48" s="1">
-        <v>516312.1688</v>
+        <v>516491.7605</v>
       </c>
       <c r="L48" s="1">
-        <v>13.5859</v>
+        <v>13.5906</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -10175,7 +10178,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3398</v>
@@ -10205,10 +10208,10 @@
         <v>581383.1258</v>
       </c>
       <c r="K49" s="1">
-        <v>525247.8957</v>
+        <v>525427.4874</v>
       </c>
       <c r="L49" s="1">
-        <v>13.5882</v>
+        <v>13.5928</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -10228,7 +10231,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.8469</v>
@@ -10258,10 +10261,10 @@
         <v>581725.7776</v>
       </c>
       <c r="K50" s="1">
-        <v>551717.7548</v>
+        <v>551897.3465</v>
       </c>
       <c r="L50" s="1">
-        <v>13.5774</v>
+        <v>13.5818</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -10281,7 +10284,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.129</v>
@@ -10311,10 +10314,10 @@
         <v>603751.2815</v>
       </c>
       <c r="K51" s="1">
-        <v>584542.0882999999</v>
+        <v>584721.6801</v>
       </c>
       <c r="L51" s="1">
-        <v>13.5358</v>
+        <v>13.5399</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.716</v>
@@ -10364,10 +10367,10 @@
         <v>595933.0532</v>
       </c>
       <c r="K52" s="1">
-        <v>585156.3899</v>
+        <v>585335.9816000001</v>
       </c>
       <c r="L52" s="1">
-        <v>13.5354</v>
+        <v>13.5395</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -10387,7 +10390,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.4613</v>
@@ -10417,10 +10420,10 @@
         <v>605879.2916</v>
       </c>
       <c r="K53" s="1">
-        <v>615927.3445</v>
+        <v>616106.9362999999</v>
       </c>
       <c r="L53" s="1">
-        <v>13.4934</v>
+        <v>13.4973</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -10440,7 +10443,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.6545</v>
@@ -10470,10 +10473,10 @@
         <v>624961.4876</v>
       </c>
       <c r="K54" s="1">
-        <v>640525.456</v>
+        <v>640705.0477999999</v>
       </c>
       <c r="L54" s="1">
-        <v>13.4517</v>
+        <v>13.4555</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -10493,7 +10496,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.2345</v>
@@ -10523,10 +10526,10 @@
         <v>614859.9087</v>
       </c>
       <c r="K55" s="1">
-        <v>644321.0346</v>
+        <v>644500.6263</v>
       </c>
       <c r="L55" s="1">
-        <v>13.4469</v>
+        <v>13.4506</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -10546,7 +10549,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.1636</v>
@@ -10576,10 +10579,10 @@
         <v>634084.9622</v>
       </c>
       <c r="K56" s="1">
-        <v>677566.0255</v>
+        <v>677745.6172</v>
       </c>
       <c r="L56" s="1">
-        <v>13.3832</v>
+        <v>13.3868</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -10599,7 +10602,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.8145</v>
@@ -10629,10 +10632,10 @@
         <v>625900.8791</v>
       </c>
       <c r="K57" s="1">
-        <v>694303.1311</v>
+        <v>694482.7228</v>
       </c>
       <c r="L57" s="1">
-        <v>13.3517</v>
+        <v>13.3551</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -10652,7 +10655,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.2352</v>
@@ -10682,10 +10685,10 @@
         <v>604631.2076</v>
       </c>
       <c r="K58" s="1">
-        <v>717063.4666</v>
+        <v>717243.0584</v>
       </c>
       <c r="L58" s="1">
-        <v>13.2977</v>
+        <v>13.3011</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -10705,7 +10708,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.8241</v>
@@ -10735,10 +10738,10 @@
         <v>606661.2665</v>
       </c>
       <c r="K59" s="1">
-        <v>727063.4666</v>
+        <v>727243.0584</v>
       </c>
       <c r="L59" s="1">
-        <v>13.2647</v>
+        <v>13.2679</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.2543</v>
@@ -10788,10 +10791,10 @@
         <v>641071.6322</v>
       </c>
       <c r="K60" s="1">
-        <v>751622.8882</v>
+        <v>751802.4799</v>
       </c>
       <c r="L60" s="1">
-        <v>13.1687</v>
+        <v>13.1718</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -10811,7 +10814,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.5675</v>
@@ -10841,10 +10844,10 @@
         <v>611303.6269</v>
       </c>
       <c r="K61" s="1">
-        <v>761622.8882</v>
+        <v>761802.4799</v>
       </c>
       <c r="L61" s="1">
-        <v>13.1398</v>
+        <v>13.1429</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -10864,7 +10867,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.967000000000001</v>
@@ -10894,10 +10897,10 @@
         <v>601610.3995000001</v>
       </c>
       <c r="K62" s="1">
-        <v>771622.8882</v>
+        <v>771802.4799</v>
       </c>
       <c r="L62" s="1">
-        <v>13.0989</v>
+        <v>13.1019</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -11002,7 +11005,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.9322</v>
@@ -11049,7 +11052,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-27</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5846</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-26</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2867</v>
@@ -11155,7 +11158,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-25</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.0645</v>
@@ -11208,7 +11211,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-24</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8083</v>
@@ -11261,7 +11264,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-23</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5636</v>
@@ -11314,7 +11317,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.1788</v>
@@ -11367,7 +11370,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.5668</v>
@@ -11420,7 +11423,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-20</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.962</v>
@@ -11473,7 +11476,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2659</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.4103</v>
@@ -11579,7 +11582,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-17</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.3976</v>
@@ -11632,7 +11635,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9013</v>
@@ -11685,7 +11688,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.3527</v>
@@ -11738,7 +11741,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8804</v>
@@ -11791,7 +11794,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6268</v>
@@ -11844,7 +11847,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-12</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3636</v>
@@ -11897,7 +11900,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-11</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8711</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1252</v>
@@ -12003,7 +12006,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1934</v>
@@ -12056,7 +12059,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1176</v>
@@ -12109,7 +12112,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3311</v>
@@ -12162,7 +12165,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3637</v>
@@ -12192,10 +12195,10 @@
         <v>278149.0566</v>
       </c>
       <c r="K24" s="1">
-        <v>213358.2714</v>
+        <v>213388.9723</v>
       </c>
       <c r="L24" s="1">
-        <v>13.3398</v>
+        <v>13.3417</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -12215,7 +12218,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6447</v>
@@ -12245,10 +12248,10 @@
         <v>276065.732</v>
       </c>
       <c r="K25" s="1">
-        <v>225331.8566</v>
+        <v>225362.5575</v>
       </c>
       <c r="L25" s="1">
-        <v>13.4351</v>
+        <v>13.4369</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -12268,7 +12271,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.486</v>
@@ -12298,10 +12301,10 @@
         <v>316556.9952</v>
       </c>
       <c r="K26" s="1">
-        <v>250037.6392</v>
+        <v>250068.3401</v>
       </c>
       <c r="L26" s="1">
-        <v>13.5481</v>
+        <v>13.5498</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -12321,7 +12324,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.1958</v>
@@ -12351,10 +12354,10 @@
         <v>339502.6326</v>
       </c>
       <c r="K27" s="1">
-        <v>247228.516</v>
+        <v>247270.4411</v>
       </c>
       <c r="L27" s="1">
-        <v>13.5286</v>
+        <v>13.5309</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -12374,7 +12377,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4264</v>
@@ -12404,10 +12407,10 @@
         <v>353707.6887</v>
       </c>
       <c r="K28" s="1">
-        <v>247106.7122</v>
+        <v>247149.1237</v>
       </c>
       <c r="L28" s="1">
-        <v>13.5275</v>
+        <v>13.5298</v>
       </c>
       <c r="M28" s="1">
         <v>0.75</v>
@@ -12427,7 +12430,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>17.107</v>
@@ -12457,10 +12460,10 @@
         <v>388772.1763</v>
       </c>
       <c r="K29" s="1">
-        <v>255889.2763</v>
+        <v>255931.6878</v>
       </c>
       <c r="L29" s="1">
-        <v>13.6107</v>
+        <v>13.613</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -12480,7 +12483,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.8894</v>
@@ -12510,10 +12513,10 @@
         <v>394683.4608</v>
       </c>
       <c r="K30" s="1">
-        <v>256203.2788</v>
+        <v>256245.6903</v>
       </c>
       <c r="L30" s="1">
-        <v>13.6142</v>
+        <v>13.6164</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -12533,7 +12536,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4004</v>
@@ -12563,10 +12566,10 @@
         <v>411866.5785</v>
       </c>
       <c r="K31" s="1">
-        <v>273573.0329</v>
+        <v>273615.4444</v>
       </c>
       <c r="L31" s="1">
-        <v>13.7853</v>
+        <v>13.7874</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -12586,7 +12589,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3877</v>
@@ -12616,10 +12619,10 @@
         <v>400294.452</v>
       </c>
       <c r="K32" s="1">
-        <v>296695.003</v>
+        <v>296737.4144</v>
       </c>
       <c r="L32" s="1">
-        <v>13.9606</v>
+        <v>13.9626</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -12639,7 +12642,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6367</v>
@@ -12669,10 +12672,10 @@
         <v>392519.49</v>
       </c>
       <c r="K33" s="1">
-        <v>331793.4027</v>
+        <v>331835.8141</v>
       </c>
       <c r="L33" s="1">
-        <v>14.1017</v>
+        <v>14.1035</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -12692,7 +12695,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.0061</v>
@@ -12722,10 +12725,10 @@
         <v>360624.8271</v>
       </c>
       <c r="K34" s="1">
-        <v>363166.7701</v>
+        <v>363209.1815</v>
       </c>
       <c r="L34" s="1">
-        <v>14.1487</v>
+        <v>14.1503</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -12745,7 +12748,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.835</v>
@@ -12775,10 +12778,10 @@
         <v>405635.3888</v>
       </c>
       <c r="K35" s="1">
-        <v>400620.225</v>
+        <v>400662.6365</v>
       </c>
       <c r="L35" s="1">
-        <v>14.0363</v>
+        <v>14.0378</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -12798,7 +12801,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.4216</v>
@@ -12828,10 +12831,10 @@
         <v>432672.6344</v>
       </c>
       <c r="K36" s="1">
-        <v>409146.4323</v>
+        <v>409188.8438</v>
       </c>
       <c r="L36" s="1">
-        <v>14.0326</v>
+        <v>14.0341</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -12851,7 +12854,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2404</v>
@@ -12881,10 +12884,10 @@
         <v>408549.1151</v>
       </c>
       <c r="K37" s="1">
-        <v>406088.6735</v>
+        <v>406143.2945</v>
       </c>
       <c r="L37" s="1">
-        <v>14.0296</v>
+        <v>14.0314</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -12904,7 +12907,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.382</v>
@@ -12934,10 +12937,10 @@
         <v>401698.7438</v>
       </c>
       <c r="K38" s="1">
-        <v>442158.5519</v>
+        <v>442213.1729</v>
       </c>
       <c r="L38" s="1">
-        <v>13.9641</v>
+        <v>13.9658</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -12957,7 +12960,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>11.9583</v>
@@ -12987,10 +12990,10 @@
         <v>397533.6814</v>
       </c>
       <c r="K39" s="1">
-        <v>462578.831</v>
+        <v>462633.4519</v>
       </c>
       <c r="L39" s="1">
-        <v>13.8871</v>
+        <v>13.8888</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -13010,7 +13013,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.2036</v>
@@ -13040,10 +13043,10 @@
         <v>415852.2708</v>
       </c>
       <c r="K40" s="1">
-        <v>472578.831</v>
+        <v>472633.4519</v>
       </c>
       <c r="L40" s="1">
-        <v>13.8406</v>
+        <v>13.8422</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -13063,7 +13066,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.9136</v>
@@ -13093,10 +13096,10 @@
         <v>462878.5414</v>
       </c>
       <c r="K41" s="1">
-        <v>482578.831</v>
+        <v>482633.4519</v>
       </c>
       <c r="L41" s="1">
-        <v>13.8029</v>
+        <v>13.8044</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -13116,7 +13119,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.4338</v>
@@ -13146,10 +13149,10 @@
         <v>491832.6782</v>
       </c>
       <c r="K42" s="1">
-        <v>504870.8385</v>
+        <v>504925.4594</v>
       </c>
       <c r="L42" s="1">
-        <v>13.7623</v>
+        <v>13.7638</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -13169,7 +13172,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.9657</v>
@@ -13199,10 +13202,10 @@
         <v>484310.1171</v>
       </c>
       <c r="K43" s="1">
-        <v>514870.8385</v>
+        <v>514925.4594</v>
       </c>
       <c r="L43" s="1">
-        <v>13.7563</v>
+        <v>13.7578</v>
       </c>
       <c r="M43" s="1">
         <v>0.3</v>
@@ -13222,7 +13225,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3568</v>
@@ -13252,10 +13255,10 @@
         <v>519284.2629</v>
       </c>
       <c r="K44" s="1">
-        <v>524870.8385</v>
+        <v>524925.4594000001</v>
       </c>
       <c r="L44" s="1">
-        <v>13.7409</v>
+        <v>13.7423</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -13275,7 +13278,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.2487</v>
@@ -13305,10 +13308,10 @@
         <v>524920.2711</v>
       </c>
       <c r="K45" s="1">
-        <v>544976.3835</v>
+        <v>545031.0044</v>
       </c>
       <c r="L45" s="1">
-        <v>13.7274</v>
+        <v>13.7288</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3991</v>
@@ -13358,10 +13361,10 @@
         <v>540952.3729</v>
       </c>
       <c r="K46" s="1">
-        <v>554976.3835</v>
+        <v>555031.0044</v>
       </c>
       <c r="L46" s="1">
-        <v>13.719</v>
+        <v>13.7203</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -13381,7 +13384,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.5985</v>
@@ -13411,10 +13414,10 @@
         <v>573674.0117</v>
       </c>
       <c r="K47" s="1">
-        <v>564976.3835</v>
+        <v>565031.0044</v>
       </c>
       <c r="L47" s="1">
-        <v>13.7137</v>
+        <v>13.715</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -13434,7 +13437,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.6955</v>
@@ -13464,10 +13467,10 @@
         <v>587728.6776000001</v>
       </c>
       <c r="K48" s="1">
-        <v>586409.9523</v>
+        <v>586464.5732</v>
       </c>
       <c r="L48" s="1">
-        <v>13.7104</v>
+        <v>13.7117</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -13487,7 +13490,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3398</v>
@@ -13517,10 +13520,10 @@
         <v>582195.2290000001</v>
       </c>
       <c r="K49" s="1">
-        <v>598121.0686999999</v>
+        <v>598175.6897</v>
       </c>
       <c r="L49" s="1">
-        <v>13.7107</v>
+        <v>13.7119</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -13540,7 +13543,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.8469</v>
@@ -13570,10 +13573,10 @@
         <v>582049.1339</v>
       </c>
       <c r="K50" s="1">
-        <v>609539.5367000001</v>
+        <v>609594.1577</v>
       </c>
       <c r="L50" s="1">
-        <v>13.7041</v>
+        <v>13.7053</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -13593,7 +13596,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.129</v>
@@ -13623,10 +13626,10 @@
         <v>604959.1892</v>
       </c>
       <c r="K51" s="1">
-        <v>631318.1402</v>
+        <v>631372.7611</v>
       </c>
       <c r="L51" s="1">
-        <v>13.6736</v>
+        <v>13.6748</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -13646,7 +13649,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.716</v>
@@ -13676,10 +13679,10 @@
         <v>595579.0537</v>
       </c>
       <c r="K52" s="1">
-        <v>641318.1402</v>
+        <v>641372.7611</v>
       </c>
       <c r="L52" s="1">
-        <v>13.6652</v>
+        <v>13.6664</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -13699,7 +13702,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.4613</v>
@@ -13729,10 +13732,10 @@
         <v>606081.1054</v>
       </c>
       <c r="K53" s="1">
-        <v>651318.1402</v>
+        <v>651372.7611</v>
       </c>
       <c r="L53" s="1">
-        <v>13.65</v>
+        <v>13.6512</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -13752,7 +13755,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.6545</v>
@@ -13782,10 +13785,10 @@
         <v>625540.1283</v>
       </c>
       <c r="K54" s="1">
-        <v>673989.4358</v>
+        <v>674044.0568</v>
       </c>
       <c r="L54" s="1">
-        <v>13.6074</v>
+        <v>13.6085</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -13805,7 +13808,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.2345</v>
@@ -13835,10 +13838,10 @@
         <v>614406.0396</v>
       </c>
       <c r="K55" s="1">
-        <v>683989.4358</v>
+        <v>684044.0568</v>
       </c>
       <c r="L55" s="1">
-        <v>13.5928</v>
+        <v>13.5939</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.1636</v>
@@ -13888,10 +13891,10 @@
         <v>634337.1541</v>
       </c>
       <c r="K56" s="1">
-        <v>693989.4358</v>
+        <v>694044.0568</v>
       </c>
       <c r="L56" s="1">
-        <v>13.5715</v>
+        <v>13.5726</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -13911,7 +13914,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.8145</v>
@@ -13941,10 +13944,10 @@
         <v>625753.0268</v>
       </c>
       <c r="K57" s="1">
-        <v>717575.8101999999</v>
+        <v>717630.4311</v>
       </c>
       <c r="L57" s="1">
-        <v>13.5211</v>
+        <v>13.5221</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -13964,7 +13967,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.2352</v>
@@ -13994,10 +13997,10 @@
         <v>604539.0899</v>
       </c>
       <c r="K58" s="1">
-        <v>727575.8101999999</v>
+        <v>727630.4311</v>
       </c>
       <c r="L58" s="1">
-        <v>13.4947</v>
+        <v>13.4957</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -14017,7 +14020,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.8241</v>
@@ -14047,10 +14050,10 @@
         <v>606570.3014999999</v>
       </c>
       <c r="K59" s="1">
-        <v>737575.8101999999</v>
+        <v>737630.4311</v>
       </c>
       <c r="L59" s="1">
-        <v>13.4585</v>
+        <v>13.4595</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -14070,7 +14073,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.2543</v>
@@ -14100,10 +14103,10 @@
         <v>640977.0605</v>
       </c>
       <c r="K60" s="1">
-        <v>762133.0135</v>
+        <v>762187.6345</v>
       </c>
       <c r="L60" s="1">
-        <v>13.3548</v>
+        <v>13.3558</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -14123,7 +14126,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.5675</v>
@@ -14153,10 +14156,10 @@
         <v>611214.8263</v>
       </c>
       <c r="K61" s="1">
-        <v>772133.0135</v>
+        <v>772187.6345</v>
       </c>
       <c r="L61" s="1">
-        <v>13.323</v>
+        <v>13.324</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -14176,7 +14179,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.967000000000001</v>
@@ -14206,10 +14209,10 @@
         <v>601524.3716</v>
       </c>
       <c r="K62" s="1">
-        <v>782133.0135</v>
+        <v>782187.6345</v>
       </c>
       <c r="L62" s="1">
-        <v>13.2792</v>
+        <v>13.2801</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -14314,7 +14317,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.9322</v>
@@ -14361,7 +14364,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-27</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.5846</v>
@@ -14414,7 +14417,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-26</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.2867</v>
@@ -14467,7 +14470,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-25</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.0645</v>
@@ -14520,7 +14523,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-24</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>13.8083</v>
@@ -14573,7 +14576,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-23</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.5636</v>
@@ -14626,7 +14629,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-22</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.1788</v>
@@ -14679,7 +14682,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.5668</v>
@@ -14732,7 +14735,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-20</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>13.962</v>
@@ -14785,7 +14788,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2659</v>
@@ -14838,7 +14841,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>12.4103</v>
@@ -14891,7 +14894,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-17</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>12.3976</v>
@@ -14944,7 +14947,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12.9013</v>
@@ -14997,7 +15000,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13.3527</v>
@@ -15050,7 +15053,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-14</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>13.8804</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-13</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6268</v>
@@ -15156,7 +15159,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-12</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.3636</v>
@@ -15209,7 +15212,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-11</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>13.8711</v>
@@ -15262,7 +15265,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-10</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>14.1252</v>
@@ -15315,7 +15318,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-9</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>14.1934</v>
@@ -15368,7 +15371,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>14.1176</v>
@@ -15421,7 +15424,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-7</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>15.3311</v>
@@ -15474,7 +15477,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>-6</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3637</v>
@@ -15504,10 +15507,10 @@
         <v>279299.9331</v>
       </c>
       <c r="K24" s="1">
-        <v>226611.7863</v>
+        <v>226623.936</v>
       </c>
       <c r="L24" s="1">
-        <v>13.4194</v>
+        <v>13.4201</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>-5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6447</v>
@@ -15557,10 +15560,10 @@
         <v>276504.8423</v>
       </c>
       <c r="K25" s="1">
-        <v>239990.358</v>
+        <v>240002.5076</v>
       </c>
       <c r="L25" s="1">
-        <v>13.5161</v>
+        <v>13.5168</v>
       </c>
       <c r="M25" s="1">
         <v>1</v>
@@ -15580,7 +15583,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>-4</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>15.486</v>
@@ -15610,10 +15613,10 @@
         <v>318826.4951</v>
       </c>
       <c r="K26" s="1">
-        <v>266923.3294</v>
+        <v>266935.4791</v>
       </c>
       <c r="L26" s="1">
-        <v>13.6246</v>
+        <v>13.6252</v>
       </c>
       <c r="M26" s="1">
         <v>0</v>
@@ -15633,7 +15636,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>-3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>16.1958</v>
@@ -15663,10 +15666,10 @@
         <v>342606.2725</v>
       </c>
       <c r="K27" s="1">
-        <v>264760.8316</v>
+        <v>264781.6217</v>
       </c>
       <c r="L27" s="1">
-        <v>13.611</v>
+        <v>13.6121</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -15686,7 +15689,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>-2</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>16.4264</v>
@@ -15716,10 +15719,10 @@
         <v>357091.5834</v>
       </c>
       <c r="K28" s="1">
-        <v>265493.4331</v>
+        <v>265514.2232</v>
       </c>
       <c r="L28" s="1">
-        <v>13.6171</v>
+        <v>13.6181</v>
       </c>
       <c r="M28" s="1">
         <v>0.75</v>
@@ -15739,7 +15742,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>17.107</v>
@@ -15769,10 +15772,10 @@
         <v>393877.7485</v>
       </c>
       <c r="K29" s="1">
-        <v>275773.3261</v>
+        <v>275794.1163</v>
       </c>
       <c r="L29" s="1">
-        <v>13.7053</v>
+        <v>13.7063</v>
       </c>
       <c r="M29" s="1">
         <v>0</v>
@@ -15792,7 +15795,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>16.8894</v>
@@ -15822,10 +15825,10 @@
         <v>399485.877</v>
       </c>
       <c r="K30" s="1">
-        <v>277059.8235</v>
+        <v>277080.6136</v>
       </c>
       <c r="L30" s="1">
-        <v>13.7181</v>
+        <v>13.7191</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -15845,7 +15848,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>16.4004</v>
@@ -15875,10 +15878,10 @@
         <v>417162.2222</v>
       </c>
       <c r="K31" s="1">
-        <v>296697.2176</v>
+        <v>296718.0077</v>
       </c>
       <c r="L31" s="1">
-        <v>13.8922</v>
+        <v>13.8932</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -15898,7 +15901,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>15.3877</v>
@@ -15928,10 +15931,10 @@
         <v>403878.4199</v>
       </c>
       <c r="K32" s="1">
-        <v>322622.946</v>
+        <v>322643.7361</v>
       </c>
       <c r="L32" s="1">
-        <v>14.067</v>
+        <v>14.0679</v>
       </c>
       <c r="M32" s="1">
         <v>0</v>
@@ -15951,7 +15954,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>14.6367</v>
@@ -15981,10 +15984,10 @@
         <v>394638.9603</v>
       </c>
       <c r="K33" s="1">
-        <v>361589.5795</v>
+        <v>361610.3697</v>
       </c>
       <c r="L33" s="1">
-        <v>14.2011</v>
+        <v>14.202</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -16004,7 +16007,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.0061</v>
@@ -16034,10 +16037,10 @@
         <v>359445.0729</v>
       </c>
       <c r="K34" s="1">
-        <v>394294.704</v>
+        <v>394315.4942</v>
       </c>
       <c r="L34" s="1">
-        <v>14.2386</v>
+        <v>14.2393</v>
       </c>
       <c r="M34" s="1">
         <v>0.5</v>
@@ -16057,7 +16060,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>13.835</v>
@@ -16087,10 +16090,10 @@
         <v>405408.067</v>
       </c>
       <c r="K35" s="1">
-        <v>404294.704</v>
+        <v>404315.4942</v>
       </c>
       <c r="L35" s="1">
-        <v>14.206</v>
+        <v>14.2068</v>
       </c>
       <c r="M35" s="1">
         <v>0</v>
@@ -16110,7 +16113,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>14.4216</v>
@@ -16140,10 +16143,10 @@
         <v>432929.9198</v>
       </c>
       <c r="K36" s="1">
-        <v>426756.109</v>
+        <v>426776.8992</v>
       </c>
       <c r="L36" s="1">
-        <v>14.1876</v>
+        <v>14.1882</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -16163,7 +16166,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2404</v>
@@ -16193,10 +16196,10 @@
         <v>406613.3097</v>
       </c>
       <c r="K37" s="1">
-        <v>436756.109</v>
+        <v>436776.8992</v>
       </c>
       <c r="L37" s="1">
-        <v>14.1935</v>
+        <v>14.1941</v>
       </c>
       <c r="M37" s="1">
         <v>0.4</v>
@@ -16216,7 +16219,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>12.382</v>
@@ -16246,10 +16249,10 @@
         <v>400643.3471</v>
       </c>
       <c r="K38" s="1">
-        <v>446756.109</v>
+        <v>446776.8992</v>
       </c>
       <c r="L38" s="1">
-        <v>14.1713</v>
+        <v>14.172</v>
       </c>
       <c r="M38" s="1">
         <v>0</v>
@@ -16269,7 +16272,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B39" s="1">
         <v>11.9583</v>
@@ -16299,10 +16302,10 @@
         <v>396511.8562</v>
       </c>
       <c r="K39" s="1">
-        <v>467833.8977</v>
+        <v>467854.6878</v>
       </c>
       <c r="L39" s="1">
-        <v>14.0811</v>
+        <v>14.0817</v>
       </c>
       <c r="M39" s="1">
         <v>0</v>
@@ -16322,7 +16325,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B40" s="1">
         <v>12.2036</v>
@@ -16352,10 +16355,10 @@
         <v>414809.4859</v>
       </c>
       <c r="K40" s="1">
-        <v>477833.8977</v>
+        <v>477854.6878</v>
       </c>
       <c r="L40" s="1">
-        <v>14.0297</v>
+        <v>14.0303</v>
       </c>
       <c r="M40" s="1">
         <v>0.4</v>
@@ -16375,7 +16378,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B41" s="1">
         <v>12.9136</v>
@@ -16405,10 +16408,10 @@
         <v>461744.2628</v>
       </c>
       <c r="K41" s="1">
-        <v>487833.8977</v>
+        <v>487854.6878</v>
       </c>
       <c r="L41" s="1">
-        <v>13.9874</v>
+        <v>13.988</v>
       </c>
       <c r="M41" s="1">
         <v>0</v>
@@ -16428,7 +16431,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1">
         <v>13.4338</v>
@@ -16458,10 +16461,10 @@
         <v>490652.8407</v>
       </c>
       <c r="K42" s="1">
-        <v>510095.0819</v>
+        <v>510115.872</v>
       </c>
       <c r="L42" s="1">
-        <v>13.9382</v>
+        <v>13.9387</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -16481,7 +16484,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <v>12.9657</v>
@@ -16511,10 +16514,10 @@
         <v>483171.3855</v>
       </c>
       <c r="K43" s="1">
-        <v>520095.0819</v>
+        <v>520115.872</v>
       </c>
       <c r="L43" s="1">
-        <v>13.9287</v>
+        <v>13.9292</v>
       </c>
       <c r="M43" s="1">
         <v>0.3</v>
@@ -16534,7 +16537,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <v>13.3568</v>
@@ -16564,10 +16567,10 @@
         <v>518087.4234</v>
       </c>
       <c r="K44" s="1">
-        <v>530095.0819</v>
+        <v>530115.872</v>
       </c>
       <c r="L44" s="1">
-        <v>13.9097</v>
+        <v>13.9103</v>
       </c>
       <c r="M44" s="1">
         <v>0</v>
@@ -16587,7 +16590,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
         <v>13.2487</v>
@@ -16617,10 +16620,10 @@
         <v>523733.2136</v>
       </c>
       <c r="K45" s="1">
-        <v>550176.8663</v>
+        <v>550197.6565</v>
       </c>
       <c r="L45" s="1">
-        <v>13.8898</v>
+        <v>13.8903</v>
       </c>
       <c r="M45" s="1">
         <v>0</v>
@@ -16640,7 +16643,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>13.3991</v>
@@ -16670,10 +16673,10 @@
         <v>539751.8397</v>
       </c>
       <c r="K46" s="1">
-        <v>560176.8663</v>
+        <v>560197.6565</v>
       </c>
       <c r="L46" s="1">
-        <v>13.8783</v>
+        <v>13.8788</v>
       </c>
       <c r="M46" s="1">
         <v>0.4</v>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>13.5985</v>
@@ -16723,10 +16726,10 @@
         <v>572423.2929</v>
       </c>
       <c r="K47" s="1">
-        <v>570176.8663</v>
+        <v>570197.6565</v>
       </c>
       <c r="L47" s="1">
-        <v>13.8701</v>
+        <v>13.8706</v>
       </c>
       <c r="M47" s="1">
         <v>0</v>
@@ -16746,7 +16749,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="2">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1">
         <v>13.6955</v>
@@ -16776,10 +16779,10 @@
         <v>586478.9062</v>
       </c>
       <c r="K48" s="1">
-        <v>594707.6996000001</v>
+        <v>594728.4898</v>
       </c>
       <c r="L48" s="1">
-        <v>13.8599</v>
+        <v>13.8604</v>
       </c>
       <c r="M48" s="1">
         <v>0</v>
@@ -16799,7 +16802,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="2">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1">
         <v>13.3398</v>
@@ -16829,10 +16832,10 @@
         <v>580947.7317</v>
       </c>
       <c r="K49" s="1">
-        <v>604707.6996000001</v>
+        <v>604728.4898</v>
       </c>
       <c r="L49" s="1">
-        <v>13.8576</v>
+        <v>13.8581</v>
       </c>
       <c r="M49" s="1">
         <v>0.3</v>
@@ -16852,7 +16855,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1">
         <v>12.8469</v>
@@ -16882,10 +16885,10 @@
         <v>580856.6547</v>
       </c>
       <c r="K50" s="1">
-        <v>614707.6996000001</v>
+        <v>614728.4898</v>
       </c>
       <c r="L50" s="1">
-        <v>13.8493</v>
+        <v>13.8498</v>
       </c>
       <c r="M50" s="1">
         <v>0</v>
@@ -16905,7 +16908,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="2">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>13.129</v>
@@ -16935,10 +16938,10 @@
         <v>603740.514</v>
       </c>
       <c r="K51" s="1">
-        <v>636489.7705</v>
+        <v>636510.5606</v>
       </c>
       <c r="L51" s="1">
-        <v>13.8134</v>
+        <v>13.8139</v>
       </c>
       <c r="M51" s="1">
         <v>0</v>
@@ -16958,7 +16961,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>12.716</v>
@@ -16988,10 +16991,10 @@
         <v>594398.7077</v>
       </c>
       <c r="K52" s="1">
-        <v>646489.7705</v>
+        <v>646510.5606</v>
       </c>
       <c r="L52" s="1">
-        <v>13.8028</v>
+        <v>13.8032</v>
       </c>
       <c r="M52" s="1">
         <v>0.3</v>
@@ -17011,7 +17014,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="2">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>12.4613</v>
@@ -17041,10 +17044,10 @@
         <v>604899.2899</v>
       </c>
       <c r="K53" s="1">
-        <v>656489.7705</v>
+        <v>656510.5606</v>
       </c>
       <c r="L53" s="1">
-        <v>13.7853</v>
+        <v>13.7857</v>
       </c>
       <c r="M53" s="1">
         <v>0</v>
@@ -17064,7 +17067,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="2">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>12.6545</v>
@@ -17094,10 +17097,10 @@
         <v>624340.0931000001</v>
       </c>
       <c r="K54" s="1">
-        <v>679135.9536</v>
+        <v>679156.7437</v>
       </c>
       <c r="L54" s="1">
-        <v>13.7376</v>
+        <v>13.738</v>
       </c>
       <c r="M54" s="1">
         <v>0</v>
@@ -17117,7 +17120,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="2">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
         <v>12.2345</v>
@@ -17147,10 +17150,10 @@
         <v>613245.8371</v>
       </c>
       <c r="K55" s="1">
-        <v>689135.9536</v>
+        <v>689156.7437</v>
       </c>
       <c r="L55" s="1">
-        <v>13.721</v>
+        <v>13.7214</v>
       </c>
       <c r="M55" s="1">
         <v>0.3</v>
@@ -17170,7 +17173,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="2">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
         <v>12.1636</v>
@@ -17200,10 +17203,10 @@
         <v>633158.014</v>
       </c>
       <c r="K56" s="1">
-        <v>699135.9536</v>
+        <v>699156.7437</v>
       </c>
       <c r="L56" s="1">
-        <v>13.6976</v>
+        <v>13.698</v>
       </c>
       <c r="M56" s="1">
         <v>0</v>
@@ -17223,7 +17226,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="2">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B57" s="1">
         <v>11.8145</v>
@@ -17253,10 +17256,10 @@
         <v>624607.8278</v>
       </c>
       <c r="K57" s="1">
-        <v>722696.6723</v>
+        <v>722717.4625</v>
       </c>
       <c r="L57" s="1">
-        <v>13.6426</v>
+        <v>13.6429</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -17276,7 +17279,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="2">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1">
         <v>11.2352</v>
@@ -17306,10 +17309,10 @@
         <v>603450.049</v>
       </c>
       <c r="K58" s="1">
-        <v>732696.6723</v>
+        <v>732717.4625</v>
       </c>
       <c r="L58" s="1">
-        <v>13.6142</v>
+        <v>13.6146</v>
       </c>
       <c r="M58" s="1">
         <v>0.3</v>
@@ -17329,7 +17332,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="2">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1">
         <v>10.8241</v>
@@ -17359,10 +17362,10 @@
         <v>605494.8872999999</v>
       </c>
       <c r="K59" s="1">
-        <v>742696.6723</v>
+        <v>742717.4625</v>
       </c>
       <c r="L59" s="1">
-        <v>13.576</v>
+        <v>13.5763</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -17382,7 +17385,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="2">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B60" s="1">
         <v>11.2543</v>
@@ -17412,10 +17415,10 @@
         <v>639859.0072</v>
       </c>
       <c r="K60" s="1">
-        <v>767227.6518</v>
+        <v>767248.4419</v>
       </c>
       <c r="L60" s="1">
-        <v>13.4676</v>
+        <v>13.4679</v>
       </c>
       <c r="M60" s="1">
         <v>0</v>
@@ -17435,7 +17438,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="2">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B61" s="1">
         <v>10.5675</v>
@@ -17465,10 +17468,10 @@
         <v>610165.0002</v>
       </c>
       <c r="K61" s="1">
-        <v>777227.6518</v>
+        <v>777248.4419</v>
       </c>
       <c r="L61" s="1">
-        <v>13.434</v>
+        <v>13.4344</v>
       </c>
       <c r="M61" s="1">
         <v>0.3</v>
@@ -17488,7 +17491,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B62" s="1">
         <v>9.967000000000001</v>
@@ -17518,10 +17521,10 @@
         <v>600507.3252</v>
       </c>
       <c r="K62" s="1">
-        <v>787227.6518</v>
+        <v>787248.4419</v>
       </c>
       <c r="L62" s="1">
-        <v>13.3883</v>
+        <v>13.3886</v>
       </c>
       <c r="M62" s="1">
         <v>0</v>
@@ -17546,13 +17549,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
@@ -17597,16 +17600,16 @@
         <v>13.1946</v>
       </c>
       <c r="D3" s="1">
-        <v>12.8664</v>
+        <v>12.871</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0989</v>
+        <v>13.1019</v>
       </c>
       <c r="F3" s="1">
-        <v>13.2792</v>
+        <v>13.2801</v>
       </c>
       <c r="G3" s="1">
-        <v>13.3883</v>
+        <v>13.3886</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -17716,6 +17719,26 @@
       </c>
       <c r="G8" s="1">
         <v>202869.3695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.7736</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8273</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.7795</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.769</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.7628</v>
       </c>
     </row>
   </sheetData>
